--- a/Class.xlsx
+++ b/Class.xlsx
@@ -38,24 +38,15 @@
     <t>Products</t>
   </si>
   <si>
-    <t>ID: String</t>
-  </si>
-  <si>
     <t>getter</t>
   </si>
   <si>
-    <t>Name: String</t>
-  </si>
-  <si>
     <t>setter</t>
   </si>
   <si>
     <t>NhaSX: String</t>
   </si>
   <si>
-    <t>quantity: int</t>
-  </si>
-  <si>
     <t>ManufacturingDate(MFD): LocalDate</t>
   </si>
   <si>
@@ -65,9 +56,6 @@
     <t>Ngày lập: LocalDate</t>
   </si>
   <si>
-    <t>Mã hàng(id products): String</t>
-  </si>
-  <si>
     <t>Số lượng: int</t>
   </si>
   <si>
@@ -207,6 +195,18 @@
   </si>
   <si>
     <t>doc tu file</t>
+  </si>
+  <si>
+    <t>List Sản Phẩm: List</t>
+  </si>
+  <si>
+    <t>maSanPham: String</t>
+  </si>
+  <si>
+    <t>tenSanPham: String</t>
+  </si>
+  <si>
+    <t>SoLuong: int</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,248 +765,248 @@
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="11" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
       <c r="G4" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="3"/>
       <c r="F5" s="13"/>
       <c r="G5" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="13"/>
       <c r="G6" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
       <c r="F7" s="13"/>
       <c r="G7" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="30"/>
       <c r="E9" s="4"/>
       <c r="F9" s="13"/>
       <c r="G9" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="30"/>
       <c r="G10" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="30"/>
       <c r="G11" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="14" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D16" s="3"/>
       <c r="F16" s="25"/>
       <c r="G16" s="27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3"/>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="25"/>
       <c r="G18" s="27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
@@ -1015,7 +1015,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1025,47 +1025,47 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
       <c r="E21" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>49</v>
-      </c>
       <c r="C22" s="29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" s="4"/>
       <c r="I23" s="3"/>
@@ -1078,22 +1078,22 @@
     </row>
     <row r="25" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
